--- a/xlsx/日本_intext.xlsx
+++ b/xlsx/日本_intext.xlsx
@@ -29,7 +29,7 @@
     <t>日本国 (山)</t>
   </si>
   <si>
-    <t>政策_政策_政治_日本</t>
+    <t>体育运动_体育运动_宦官_日本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
@@ -2978,10 +2978,10 @@
     <t>離島</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%89%E5%B7%B4%E5%93%A5%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>加拉巴哥群島</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%89%E5%B8%95%E6%88%88%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>加拉帕戈斯群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%A4%9A%E6%A8%A3%E6%80%A7</t>
@@ -4430,10 +4430,10 @@
     <t>法國</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>日立</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%AB%8B%E8%A3%BD%E4%BD%9C%E6%89%80</t>
+  </si>
+  <si>
+    <t>日立製作所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E4%B8%8B</t>
@@ -10560,7 +10560,7 @@
         <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H20" t="s">
         <v>4</v>
@@ -14417,7 +14417,7 @@
         <v>288</v>
       </c>
       <c r="G153" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -35529,7 +35529,7 @@
         <v>1664</v>
       </c>
       <c r="G881" t="n">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="H881" t="s">
         <v>4</v>
@@ -35616,7 +35616,7 @@
         <v>1670</v>
       </c>
       <c r="G884" t="n">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="H884" t="s">
         <v>4</v>
@@ -35645,7 +35645,7 @@
         <v>1672</v>
       </c>
       <c r="G885" t="n">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H885" t="s">
         <v>4</v>
@@ -35732,7 +35732,7 @@
         <v>1678</v>
       </c>
       <c r="G888" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H888" t="s">
         <v>4</v>
@@ -35761,7 +35761,7 @@
         <v>1680</v>
       </c>
       <c r="G889" t="n">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H889" t="s">
         <v>4</v>
@@ -50522,7 +50522,7 @@
         <v>224</v>
       </c>
       <c r="G1398" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H1398" t="s">
         <v>4</v>
@@ -51044,7 +51044,7 @@
         <v>1884</v>
       </c>
       <c r="G1416" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1416" t="s">
         <v>4</v>
@@ -51392,7 +51392,7 @@
         <v>2652</v>
       </c>
       <c r="G1428" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1428" t="s">
         <v>4</v>
@@ -52726,7 +52726,7 @@
         <v>2742</v>
       </c>
       <c r="G1474" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H1474" t="s">
         <v>4</v>
